--- a/易识测试用例-v2.10 - 8月.xlsx
+++ b/易识测试用例-v2.10 - 8月.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="226">
   <si>
     <t xml:space="preserve">请按照下面的规则填写上传数据:
 1.模块：填写用例库下已有的模块名称，请从第一级模块开始完整填写（所有用例不属于模块），层级之间用“/”间隔，例如：一级模块/二级模块/三级模块，最多五级，不填写自动归入至‘无模块用例’中。
@@ -87,7 +87,7 @@
     <t>YSC-891</t>
   </si>
   <si>
-    <t>【易识v2.10.2】任务栏页面-成功下载SBOM清单</t>
+    <t>任务栏页面-成功下载SBOM清单</t>
   </si>
   <si>
     <t>王文辉</t>
@@ -113,7 +113,7 @@
     <t>YSC-892</t>
   </si>
   <si>
-    <t>【易识v2.10.2】SBOM清单内容核对</t>
+    <t>SBOM清单内容核对</t>
   </si>
   <si>
     <t>P2</t>
@@ -130,7 +130,7 @@
     <t>YSC-893</t>
   </si>
   <si>
-    <t>【易识v2.10.2】报告预览页面-成功下载SBOM清单</t>
+    <t>报告预览页面-成功下载SBOM清单</t>
   </si>
   <si>
     <t>1、固件扫描分析页面选择任务；
@@ -145,7 +145,7 @@
     <t>YSC-894</t>
   </si>
   <si>
-    <t>【易识v2.10.2】报告预览页面-下载SBOM清单失败</t>
+    <t>报告预览页面-下载SBOM清单失败</t>
   </si>
   <si>
     <t>任务无SBOM：
@@ -160,7 +160,7 @@
     <t>YSC-895</t>
   </si>
   <si>
-    <t>【易识v2.10.2】任务栏页面-下载SBOM清单失败</t>
+    <t>任务栏页面-下载SBOM清单失败</t>
   </si>
   <si>
     <t>固件扫描分析/固件分析报告内容</t>
@@ -169,7 +169,7 @@
     <t>YSC-896</t>
   </si>
   <si>
-    <t>【易识v2.10.2】报告安全编译选项章节文本优化</t>
+    <t>报告安全编译选项章节文本优化</t>
   </si>
   <si>
     <t>UI测试</t>
@@ -191,7 +191,10 @@
     <t>固件扫描分析/勾选插件类</t>
   </si>
   <si>
-    <t>【易识v2.10.2】只勾选敏感信息插件-无敏感信息</t>
+    <t>YSC-897</t>
+  </si>
+  <si>
+    <t>只勾选敏感信息插件-无敏感信息</t>
   </si>
   <si>
     <t>1、点击【添加任务】按钮；
@@ -208,7 +211,10 @@
 5、敏感信息描述：发现0 项敏感信息</t>
   </si>
   <si>
-    <t>【易识v2.10.2】只勾选敏感信息插件-有敏感信息</t>
+    <t>YSC-898</t>
+  </si>
+  <si>
+    <t>只勾选敏感信息插件-有敏感信息</t>
   </si>
   <si>
     <t>敏感信息中含用户名信息
@@ -222,7 +228,10 @@
 5、敏感信息描述：发现* 项敏感信息，敏感信息中有用户名；</t>
   </si>
   <si>
-    <t>【易识v2.10.2】不勾选敏感信息插件</t>
+    <t>YSC-899</t>
+  </si>
+  <si>
+    <t>不勾选敏感信息插件</t>
   </si>
   <si>
     <t>1、点击【添加任务】按钮；
@@ -239,7 +248,10 @@
 </t>
   </si>
   <si>
-    <t>【易识v2.10.2】敏感信息插件界面测试</t>
+    <t>YSC-900</t>
+  </si>
+  <si>
+    <t>敏感信息插件UI测试</t>
   </si>
   <si>
     <t>查看报告勾选了敏感信息分析插件</t>
@@ -262,7 +274,10 @@
     <t>固件扫描分析/分页预览报告</t>
   </si>
   <si>
-    <t>【易识v2.10.2】敏感信息章节文件路径展开去除敏感信息类型</t>
+    <t>YSC-901</t>
+  </si>
+  <si>
+    <t>敏感信息章节文件路径展开去除敏感信息类型</t>
   </si>
   <si>
     <t>存在敏感信息</t>
@@ -277,7 +292,10 @@
     <t>固件扫描分析/分页预览报告/开源许可证</t>
   </si>
   <si>
-    <t>【易识v2.10.2】存在开源许可证书时，章节界面校验</t>
+    <t>YSC-902</t>
+  </si>
+  <si>
+    <t>存在开源许可证书时，章节界面校验</t>
   </si>
   <si>
     <t>存在开源许可证</t>
@@ -294,7 +312,10 @@
 </t>
   </si>
   <si>
-    <t>【易识v2.10.2】无开源许可证书时，界面校验</t>
+    <t>YSC-903</t>
+  </si>
+  <si>
+    <t>无开源许可证书时，界面校验</t>
   </si>
   <si>
     <t>无开源许可证书</t>
@@ -310,7 +331,10 @@
     <t>固件：V204GT</t>
   </si>
   <si>
-    <t>【易识v2.10.2】点击证书名可显示证书详情</t>
+    <t>YSC-904</t>
+  </si>
+  <si>
+    <t>点击证书名可显示证书详情</t>
   </si>
   <si>
     <t>1、分页报告预览点击【开源许可证】章节；
@@ -322,10 +346,10 @@
 2、证书名称、类型、简介、官网地址、许可权限、禁止权限、许可证条件、原文信息与excel报告中数据逐条进行核对，校验两份报告数据是否对应；</t>
   </si>
   <si>
-    <t>固件扫描分析/分页预览报告/开源许可证书</t>
-  </si>
-  <si>
-    <t>【易识v2.10.2】下载PDF报告开源许可证书章节校验</t>
+    <t>YSC-905</t>
+  </si>
+  <si>
+    <t>下载PDF报告开源许可证书章节校验</t>
   </si>
   <si>
     <t>1、校验有开源许可证书报告内容；
@@ -341,7 +365,10 @@
 ”</t>
   </si>
   <si>
-    <t>【易识v2.10.2】历史报告开源许可证书章节在线预览内容校验</t>
+    <t>YSC-906</t>
+  </si>
+  <si>
+    <t>历史报告开源许可证书章节在线预览内容校验</t>
   </si>
   <si>
     <t>1、选择含有开源许可证书的历史报告，查看该章节内容；
@@ -352,7 +379,10 @@
 </t>
   </si>
   <si>
-    <t>【易识v2.10.2】可通过许可证书名称成功搜索证书</t>
+    <t>YSC-907</t>
+  </si>
+  <si>
+    <t>可通过许可证书名称成功搜索证书</t>
   </si>
   <si>
     <t>1、输入存在的许可证书名（注意校验字母大小写搜索结果）；
@@ -363,7 +393,10 @@
 2、搜索结果显示“暂无数据”；</t>
   </si>
   <si>
-    <t>【易识v2.10.2】报告各章节可正常切换</t>
+    <t>YSC-908</t>
+  </si>
+  <si>
+    <t>报告各章节可正常切换</t>
   </si>
   <si>
     <t>1、选择固件任务，点击在线报告预览按钮；
@@ -373,22 +406,434 @@
     <t>1、可正常切换各章节，报告数据显示正常；</t>
   </si>
   <si>
-    <t>【易识v2.10.2】</t>
-  </si>
-  <si>
-    <t>产品信息配置</t>
-  </si>
-  <si>
-    <t>固件扫描分析/pdf报告</t>
+    <t>固件扫描分析/分页预览报告/文件成分</t>
+  </si>
+  <si>
+    <t>YSC-909</t>
+  </si>
+  <si>
+    <t>组件栏可成功点击许可证名称查看许可证书详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、选择固件任务，点击在线报告预览按钮；
+2、点击文件成分章节；
+3、点击组件名栏的许可证名称/图标；
+</t>
+  </si>
+  <si>
+    <t>1、组件只关联一个开源许可证书时，直接显示许可证书名称，点击许可证书名，右侧弹框显示许可证书详情；
+2、组件关联多个开源许可证书，许可证书以图标显示；鼠标悬浮显示许可证书名称；点击图标，右侧弹框显示对应许可证书详情；</t>
+  </si>
+  <si>
+    <t>固件样本：libcurl_7.17.1-1_arm.ipk
+组件存在单个和多个许可证</t>
+  </si>
+  <si>
+    <t>YSC-910</t>
+  </si>
+  <si>
+    <t>点击组件栏下拉按钮，可成功查看组件引入路径详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、选择固件任务，点击在线报告预览按钮；
+2、点击文件成分章节；
+3、点击组件下拉三角按钮；
+</t>
+  </si>
+  <si>
+    <t>1、点击下拉按钮，显示引入路径及同源性相似度；
+2、至少存在一个同源性相似度超过50%的引入路径；
+3、无低于50%的同源性路径；
+4、非同源性分析引入路径，路径无法点击，同源性显示【-】</t>
+  </si>
+  <si>
+    <t>YSC-911</t>
+  </si>
+  <si>
+    <t>同源性分析相似度超50%，成功显示组件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击查看含同源性分析结果的报告，选择文件成分章节；
+2、点击组件下拉按钮；
+</t>
+  </si>
+  <si>
+    <t>1、仅勾选同源性分析插件：组件同源性分析均超过50%，不显示同源性分析低于50%的引入路径；
+2、同时勾选文件成分插件：同时显示同源性分析超50%的引入路径即组件yara匹配规则的引入路径；
+3、同源性分析的引入路径显示为蓝色可点击状态；
+3、yara匹配组件，引入路径显示为黑色，不可点击；同源性显示【-】</t>
+  </si>
+  <si>
+    <t>YSC-912</t>
+  </si>
+  <si>
+    <t>校验文件成分中报告标题栏名称一致</t>
+  </si>
+  <si>
+    <t>1、下载PDF报告、EXCEL报告；
+2、核对在线预览报告及PDF报告、EXCEL报告文件成分标题栏一致性；</t>
+  </si>
+  <si>
+    <t>标题栏各字段均一致</t>
+  </si>
+  <si>
+    <t>YSC-913</t>
+  </si>
+  <si>
+    <t>PDF报告文件成分章节新增信息校验</t>
+  </si>
+  <si>
+    <t>固件：libcurl_7.17.1-1_arm.ipk
+存在单个及多个关联的开源许可证</t>
+  </si>
+  <si>
+    <t>1、下载PDF报告，校验报告内容；</t>
+  </si>
+  <si>
+    <t>1、组件栏信息新增开源许可证（完整展示证书名字）、相关文件；
+2、关联多个开源许可证书仍可完整展示许可证名称；</t>
+  </si>
+  <si>
+    <t>固件：libcurl_7.17.1-1_arm.ipk</t>
+  </si>
+  <si>
+    <t>固件扫描分析/分页预览报告/文件成分/同源性分析</t>
+  </si>
+  <si>
+    <t>YSC-914</t>
+  </si>
+  <si>
+    <t>单个勾选同源性分析插件可成功创建任务</t>
+  </si>
+  <si>
+    <t>1、点击【添加任务】，上传文件，输入厂商、版本；
+2、只勾选同源性分析插件；
+3、点击【添加任务】；
+4、任务上传后，点击开始按纽；
+5、任务完成后查看报告；</t>
+  </si>
+  <si>
+    <t>1、任务创建成功；
+2、任务可成功开始；
+3、任务正常结束，可查看报告；</t>
+  </si>
+  <si>
+    <t>YSC-915</t>
+  </si>
+  <si>
+    <t>单个勾选同源性分析插件可成功查看任务报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击查看报告按钮；
+2、分页展示报告预览；
+3、切换各分页查看报告内容；
+</t>
+  </si>
+  <si>
+    <t>1、可成功查看在线预览报告；
+2、报告内容仅展示基本信息及文件成分（无yara规则匹配组件信息）、许可证信息，其他章节内容均为空；
+3、文件成分展示组件，引入路径，同源性，及许可证信息；
+4、许可证展示组件关联许可证信息；
+5、引入路径可点击跳转同源性分析章节；</t>
+  </si>
+  <si>
+    <t>YSC-916</t>
+  </si>
+  <si>
+    <t>单个勾选同源性分析插件可成功下载任务PDF报告</t>
+  </si>
+  <si>
+    <t>1、点击下载报告按钮；
+2、点击下载PDF报告；
+3、报告生成后，查看报告内容；</t>
+  </si>
+  <si>
+    <t>1、点击下载PDF报告按钮，按钮变成圆圈形状下载进度；
+2、进度达成100%后，自动给下载报告，按钮重新变为下载样式；
+3、查看报告内容，仅展示基本信息及文件成分（组件、引入路径、同源性，（无yara规则匹配组件信息））和许可证章节；</t>
+  </si>
+  <si>
+    <t>YSC-917</t>
+  </si>
+  <si>
+    <t>单个勾选同源性分析插件可成功下载任务EXCEL报告</t>
+  </si>
+  <si>
+    <t>1、点击下载报告按钮；
+2、点击下载EXCEL报告；
+3、报告生成后，查看报告内容；</t>
+  </si>
+  <si>
+    <t>1、成功下载EXCEL报告；
+2、报告仅基本信息，文件成分（无yara规则匹配组件信息），许可证章节有信息，其他章节内容为空格；</t>
+  </si>
+  <si>
+    <t>YSC-918</t>
+  </si>
+  <si>
+    <t>单个勾选同源性分析插件可在分页预览页面成功下载任务PDF报告</t>
+  </si>
+  <si>
+    <t>报告未生成过PDF报告</t>
+  </si>
+  <si>
+    <t>1、点击报告预览按钮；
+2、点击下载按钮，选择下载PDF报告按钮；
+3、下载完成后，查看报告内容；</t>
+  </si>
+  <si>
+    <t>1、下载PDF报告按钮变为圆形下载进度状态；
+2、进度为100%时，自动下载PDF报告；
+3、成功查看PDF报告，报告内容仅显示基本信息，文件成分（组件、引入路径、同源性，（无yara规则匹配组件信息）），许可证章节内容；</t>
+  </si>
+  <si>
+    <t>YSC-919</t>
+  </si>
+  <si>
+    <t>单个勾选同源性分析插件可在分页预览页面成功下载任务EXCEL报告</t>
+  </si>
+  <si>
+    <t>1、点击报告预览按钮；
+2、点击下载按钮，选择下载EXCEL报告按钮；
+3、下载完成后，查看报告内容；</t>
+  </si>
+  <si>
+    <t>YSC-920</t>
+  </si>
+  <si>
+    <t>不勾选同源性分析插件可成功创建任务</t>
+  </si>
+  <si>
+    <t>1、点击【添加任务】，上传文件，输入厂商、版本；
+2、不勾选同源性分析插件；
+3、点击【添加任务】；
+4、任务上传后，点击开始按纽；
+5、任务完成后查看报告；</t>
+  </si>
+  <si>
+    <t>YSC-921</t>
+  </si>
+  <si>
+    <t>不勾选同源性分析插件可成功查看任务报告</t>
+  </si>
+  <si>
+    <t>1、可成功查看在线预览报告；
+2、报告内容仅展示基本信息及文件成分、许可证信息，其他章节内容均为空；
+3、文件成分展示组件，引入路径，（无同源性分析组件信息），及许可证信息；
+4、许可证展示组件关联许可证信息；</t>
+  </si>
+  <si>
+    <t>YSC-922</t>
+  </si>
+  <si>
+    <t>不勾选同源性分析插件可成功下载任务PDF报告</t>
+  </si>
+  <si>
+    <t>1、下载PDF报告按钮变为圆形下载进度状态；
+2、进度为100%时，自动下载PDF报告；
+3、成功查看PDF报告，文件成分章节无同源性分析结果，均为yara匹配组件信息；</t>
+  </si>
+  <si>
+    <t>YSC-923</t>
+  </si>
+  <si>
+    <t>不勾选同源性分析插件可成功下载任务EXCEL报告</t>
+  </si>
+  <si>
+    <t>1、成功下载EXCEL报告；
+2、报告文件成分章节无同源性分析结果，均为yara匹配组件信息；；</t>
+  </si>
+  <si>
+    <t>YSC-924</t>
+  </si>
+  <si>
+    <t>校验文件名称类型及字符长度勾选同源性分析插件，分析结果无差异</t>
+  </si>
+  <si>
+    <t>1、选择文件分别为单个汉字、字母、数字，64个字符，创建固件任务，单个勾选同源性分析插件；
+2、运行任务；
+3、任务结束后查看报告结果；</t>
+  </si>
+  <si>
+    <t>1、可成功创建任务；
+2、可成功运行任务；
+3、报告结果与固件正常名字时结果一致；</t>
+  </si>
+  <si>
+    <t>YSC-925</t>
+  </si>
+  <si>
+    <t>在线预览报告可成功查看同源性分析详情</t>
+  </si>
+  <si>
+    <t>1、选择单个勾选同源性分析及全选插件任务，点击查看在线预览报告；
+2、切换文件成分章节，点击组件展开按钮；
+3、点击含同源性分析的【引入路径】；</t>
+  </si>
+  <si>
+    <t>1、文件成分章节显示同源性分析超过50%的组件【引入路径】及yara匹配组件结果；
+2、点击同源性分析的引入路径，成功跳转同源性分析章节，展示组件函数调用图；</t>
+  </si>
+  <si>
+    <t>YSC-926</t>
+  </si>
+  <si>
+    <t>同源性分析可成功切换函数调用图、控制流图、中间语言分析章节</t>
+  </si>
+  <si>
+    <t>已进入同源性分析详情页</t>
+  </si>
+  <si>
+    <t>1、多次切换函数调用图、控制流图、中间语言分析章节；</t>
+  </si>
+  <si>
+    <t>可成功切换章节，且内容显示无误</t>
+  </si>
+  <si>
+    <t>YSC-927</t>
+  </si>
+  <si>
+    <t>可选择左侧函数名，成功展示函数分析结果</t>
+  </si>
+  <si>
+    <t>1、左侧【选择函数】栏，选择点击各个函数；
+2、切换函数调用图、控制流图、中间语言分析页面；</t>
+  </si>
+  <si>
+    <t>1、可成功选择函数，展示函数分析结果；
+2、切换页面，可成功展示分析结果，且结果无误；</t>
+  </si>
+  <si>
+    <t>YSC-928</t>
+  </si>
+  <si>
+    <t>点击面包屑，可成功切换页面</t>
+  </si>
+  <si>
+    <t>1、分别在函数调用图、控制流图、中间语言分析页面，点击左侧菜单“分析报告”面包屑；
+2、返回分析报告页面后，重新点击文件成分，同源性分析引入路径；
+3、分别在函数调用图、控制流图、中间语言分析页面，点击左侧菜单“固件扫描分析”/面包屑“固件扫描分析”；</t>
+  </si>
+  <si>
+    <t>1、返回文件成分页面；
+2、可重新进入同源性分析详情页面；
+3、返回固件扫描任务列表页面</t>
+  </si>
+  <si>
+    <t>YSC-929</t>
+  </si>
+  <si>
+    <t>同源性分析历史报告内容校验</t>
+  </si>
+  <si>
+    <t>1、选择含文件成分的历史报告，查看报告内容；
+2、选择含文件成分的历史报告，下载PDF及excel报告；
+3、选择含文件成分的历史报告，查看对比分析报告；</t>
+  </si>
+  <si>
+    <t>1、文件成分章节显示为新版格式：增加关联许可证、相关文件、引入路径、同源性均显示【-】
+2、已生成PDF报告：下载报告和原来一样；
+3、未生成PDF报告，报告新增许可证章节，文件成分章节显示为新版格式：增加关联许可证、相关文件、引入路径、同源性均显示【-】；
+4、excel报告：和原来一样；
+5、对比报告：和原来格式数据一样；</t>
+  </si>
+  <si>
+    <t>YSC-930</t>
+  </si>
+  <si>
+    <t>同源性分析新建对比报告内容校验</t>
+  </si>
+  <si>
+    <t>1、选择勾选有同源性分析结果的报告，创建对比报告；
+2、查看报告，校验报告内容；</t>
+  </si>
+  <si>
+    <t>1、可成功创建对比分析报告；
+2、报告结构与旧版报告一致，数据无误；</t>
+  </si>
+  <si>
+    <t>固件扫描分析/固件库任务</t>
+  </si>
+  <si>
+    <t>YSC-931</t>
+  </si>
+  <si>
+    <t>固件库任务界面校验</t>
+  </si>
+  <si>
+    <t>1、点击添加任务，勾选关联固件库，创建任务；
+2、点击开始按钮；
+3、任务结束后，更新漏洞库，刷新任务；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、成功添加任务，任务名前显示【关联】图标，任务操作栏新增刷新按钮，默认置灰显示；
+2、任务成功运行，刷新按钮置灰显示，开始任务变成运行状态；
+3、任务完成后，刷新按钮置灰，开始按钮变成查看报告按钮；
+4、更新漏洞库后，刷新按钮变成可点击状态，开始按钮为置灰不可点击状态；
+5、任务刷新后，刷新按钮重新变为置灰不可点击状态；开始按钮可正常暂停/恢复任务；
+</t>
+  </si>
+  <si>
+    <t>YSC-932</t>
+  </si>
+  <si>
+    <t>可成功通过任务栏固件库过滤标识筛选固件库任务</t>
+  </si>
+  <si>
+    <t>1、点击固件扫描分析任务栏的组件标识；
+2、输入任务名称、厂商；选择任务状态、时间组合筛选；</t>
+  </si>
+  <si>
+    <t>1、可成功过滤固件库任务，仅显示固件库任务；
+2、可成功组合筛选出符合条件的固件库任务；
+3、不存在相应固件库任务时，过滤结果显示“暂无结果”；</t>
+  </si>
+  <si>
+    <t>YSC-933</t>
+  </si>
+  <si>
+    <t>用户管理平台去除【固件库管理】权限</t>
+  </si>
+  <si>
+    <t>1、登录用户管理平台，查看易识权限；
+2、给用户分配各个权限，登录易识产品，校验各权限正确性；</t>
+  </si>
+  <si>
+    <t>1、用户管理平台去除固件库管理权限：权限管理，角色管理，群组管理；
+2、用户各权限显示菜单正确；</t>
   </si>
   <si>
     <t>固件扫描分析</t>
   </si>
   <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>数据库验证</t>
+    <t>YSC-934</t>
+  </si>
+  <si>
+    <t>固件扫描分析页面优化校验</t>
+  </si>
+  <si>
+    <t>1、校验任务各运行状态下，扫描进度界面显示；
+2、校验任务完成后，界面显示；
+3、扫描进度筛选按钮校验；</t>
+  </si>
+  <si>
+    <t>1、任务处于未开始、队列中、运行中、暂停、完成状态时，扫描进度显示正确；
+2、报告存在CVE及不存在CVE，与未勾选CVE插件时，扫描进度数据显示正确；
+3、扫描进度筛选按钮初始、筛选时状态及筛选结果显示正确；</t>
+  </si>
+  <si>
+    <t>YSC-935</t>
+  </si>
+  <si>
+    <t>分页预览页面优化</t>
+  </si>
+  <si>
+    <t>1、校验在线预览报告CVE及CWE排序及筛选按钮；
+2、CVE、CWE缺陷详情滚动条校验；</t>
+  </si>
+  <si>
+    <t>1、筛选按钮样式无误，筛选结果正确；
+2、滚动条常显；</t>
   </si>
   <si>
     <t>水平</t>
@@ -434,7 +879,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,14 +892,6 @@
       <vertAlign val="superscript"/>
       <sz val="20"/>
       <color rgb="FF348FE4"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -943,137 +1380,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,9 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1502,12 +1936,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1766,8 +2200,11 @@
       <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>18</v>
@@ -1779,18 +2216,21 @@
         <v>20</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="154" customHeight="1" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
@@ -1802,21 +2242,24 @@
         <v>20</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="210" customHeight="1" spans="1:12">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
@@ -1828,18 +2271,21 @@
         <v>26</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="210" customHeight="1" spans="1:12">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="B12" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>18</v>
@@ -1851,21 +2297,24 @@
         <v>43</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="145" customHeight="1" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>18</v>
@@ -1877,21 +2326,24 @@
         <v>43</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" ht="177" customHeight="1" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
@@ -1903,21 +2355,24 @@
         <v>43</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="1:14">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -1929,24 +2384,27 @@
         <v>43</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="136" customHeight="1" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -1958,18 +2416,21 @@
         <v>26</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="209" customHeight="1" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
@@ -1981,18 +2442,21 @@
         <v>26</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="136" customHeight="1" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
@@ -2004,332 +2468,801 @@
         <v>26</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" ht="136" customHeight="1" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="K19" s="8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" ht="155" customHeight="1" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="E20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="K20" s="8" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" ht="155" customHeight="1" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" ht="155" customHeight="1" spans="1:14">
       <c r="A21" s="8" t="s">
-        <v>61</v>
+        <v>103</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" ht="98" customHeight="1" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" ht="155" customHeight="1" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>61</v>
+        <v>103</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" ht="142" customHeight="1" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" ht="189" customHeight="1" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" ht="142" customHeight="1" spans="1:3">
+        <v>114</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" ht="142" customHeight="1" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" ht="158" customHeight="1" spans="1:12">
+        <v>118</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" ht="142" customHeight="1" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" ht="185" customHeight="1" spans="1:12">
+        <v>122</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" ht="158" customHeight="1" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" ht="178" customHeight="1" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" ht="185" customHeight="1" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" ht="178" customHeight="1" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="178" customHeight="1" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" ht="321" customHeight="1" spans="1:3">
+        <v>137</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" ht="178" customHeight="1" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" ht="93" customHeight="1" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" ht="129.6" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" ht="128" customHeight="1" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" ht="93" customHeight="1" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" ht="142" customHeight="1" spans="1:3">
+        <v>150</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" ht="128" customHeight="1" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" ht="142" customHeight="1" spans="1:3">
+        <v>153</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" ht="142" customHeight="1" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" ht="152" customHeight="1" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" ht="142" customHeight="1" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" ht="85" customHeight="1" spans="1:3">
+        <v>159</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" ht="152" customHeight="1" spans="1:12">
       <c r="A35" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="125" customHeight="1" spans="1:3">
+        <v>162</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" ht="85" customHeight="1" spans="1:12">
       <c r="A36" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" ht="170" customHeight="1" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" ht="125" customHeight="1" spans="1:12">
       <c r="A37" s="8" t="s">
-        <v>94</v>
+        <v>127</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" ht="93" customHeight="1" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" ht="78" customHeight="1" spans="1:12">
       <c r="A38" s="8" t="s">
-        <v>94</v>
+        <v>127</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" ht="203" customHeight="1" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" ht="93" customHeight="1" spans="1:12">
       <c r="A39" s="8" t="s">
-        <v>95</v>
+        <v>127</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" ht="93" customHeight="1" spans="1:3">
+        <v>178</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" ht="203" customHeight="1" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>96</v>
+        <v>127</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" ht="205" customHeight="1" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" ht="238" customHeight="1" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>97</v>
+        <v>127</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" ht="85" customHeight="1" spans="3:12">
+        <v>186</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" ht="205" customHeight="1" spans="1:12">
+      <c r="A42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="C42" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" ht="85" customHeight="1" spans="3:3">
+        <v>190</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" ht="292" customHeight="1" spans="1:12">
+      <c r="A43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="C43" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" ht="85" customHeight="1" spans="3:3">
+        <v>195</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" ht="107" customHeight="1" spans="1:12">
+      <c r="A44" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="C44" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" ht="85" customHeight="1" spans="3:3">
+        <v>199</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" ht="85" customHeight="1" spans="1:12">
+      <c r="A45" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="C45" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" ht="85" customHeight="1" spans="3:3">
+        <v>203</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" ht="158" customHeight="1" spans="1:12">
+      <c r="A46" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="C46" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" ht="85" customHeight="1" spans="3:3">
+        <v>208</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" ht="85" customHeight="1" spans="1:12">
+      <c r="A47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="C47" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" ht="85" customHeight="1" spans="3:3">
-      <c r="C48" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" ht="85" customHeight="1" spans="3:3">
-      <c r="C49" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" ht="85" customHeight="1" spans="3:3">
-      <c r="C50" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" ht="85" customHeight="1" spans="3:3">
-      <c r="C51" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" ht="85" customHeight="1" spans="3:3">
-      <c r="C52" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" ht="85" customHeight="1" spans="3:3">
-      <c r="C53" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" ht="85" customHeight="1" spans="3:3">
-      <c r="C54" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" ht="85" customHeight="1" spans="3:3">
-      <c r="C55" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" ht="85" customHeight="1" spans="3:3">
-      <c r="C56" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" ht="85" customHeight="1" spans="3:3">
-      <c r="C57" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" ht="85" customHeight="1" spans="3:3">
-      <c r="C58" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" ht="85" customHeight="1" spans="3:3">
-      <c r="C59" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" ht="85" customHeight="1" spans="3:3">
-      <c r="C60" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" ht="85" customHeight="1" spans="3:3">
-      <c r="C61" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" ht="85" customHeight="1" spans="3:3">
-      <c r="C62" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" ht="85" customHeight="1" spans="3:3">
-      <c r="C63" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" ht="85" customHeight="1" spans="3:3">
-      <c r="C64" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
+        <v>212</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" ht="85" customHeight="1"/>
+    <row r="49" ht="85" customHeight="1"/>
+    <row r="50" ht="85" customHeight="1"/>
+    <row r="51" ht="85" customHeight="1"/>
+    <row r="52" ht="85" customHeight="1"/>
+    <row r="53" ht="85" customHeight="1"/>
+    <row r="54" ht="85" customHeight="1"/>
+    <row r="55" ht="85" customHeight="1"/>
+    <row r="56" ht="85" customHeight="1"/>
+    <row r="57" ht="85" customHeight="1"/>
+    <row r="58" ht="85" customHeight="1"/>
+    <row r="59" ht="85" customHeight="1"/>
+    <row r="60" ht="85" customHeight="1"/>
+    <row r="61" ht="85" customHeight="1"/>
+    <row r="62" ht="85" customHeight="1"/>
+    <row r="63" ht="85" customHeight="1"/>
+    <row r="64" ht="85" customHeight="1"/>
     <row r="65" ht="85" customHeight="1"/>
     <row r="66" ht="85" customHeight="1"/>
     <row r="67" ht="85" customHeight="1"/>
@@ -2393,6 +3326,7 @@
     <row r="125" ht="85" customHeight="1"/>
     <row r="126" ht="85" customHeight="1"/>
     <row r="127" ht="85" customHeight="1"/>
+    <row r="128" ht="85" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
@@ -2421,93 +3355,93 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
